--- a/data/trans_dic/P57GLOBAL_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8657522131488447</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7671165773424271</v>
+        <v>0.767116577342427</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7041606067826173</v>
@@ -697,7 +697,7 @@
         <v>0.8633551604480119</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7724045618605303</v>
+        <v>0.7724045618605306</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6910317814967957</v>
+        <v>0.6923270510951406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6642060008724777</v>
+        <v>0.6648555472966533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8379989738553463</v>
+        <v>0.8379283042113546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7358262201716549</v>
+        <v>0.7299548347430543</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6551759616830407</v>
+        <v>0.6571897396744281</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.718662376758025</v>
+        <v>0.7192898017842608</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8445235268761651</v>
+        <v>0.8461833265817494</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.730295617202982</v>
+        <v>0.7330775062746441</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6806362426753809</v>
+        <v>0.682536565683578</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7027448451091436</v>
+        <v>0.6993403512699535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8482707161079822</v>
+        <v>0.84759091976433</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.744832265232895</v>
+        <v>0.7457047128363313</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7647311994094306</v>
+        <v>0.7631392862668327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7278874128341467</v>
+        <v>0.727260224470985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.881093792041885</v>
+        <v>0.8796115557119001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8229775897145374</v>
+        <v>0.8152086822181601</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7162906394387173</v>
+        <v>0.7189429742878484</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7721684273221924</v>
+        <v>0.775006404787517</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8828874646468277</v>
+        <v>0.8835968203008817</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7987972930044406</v>
+        <v>0.8002209476055939</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7276350451940452</v>
+        <v>0.7271825735994338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7432931128287592</v>
+        <v>0.7396627676460992</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8768721155846929</v>
+        <v>0.876570994185597</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7971140209256643</v>
+        <v>0.7956680859173624</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6578686324614154</v>
+        <v>0.6571083024007401</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6563589849621468</v>
+        <v>0.6602460918486381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8074114176520596</v>
+        <v>0.8067028774586892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7029905180155009</v>
+        <v>0.7063933242611042</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7081665486289345</v>
+        <v>0.7042371365275294</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7523279023514791</v>
+        <v>0.7541146596118274</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8389034858800314</v>
+        <v>0.8403151888754149</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7038650818695789</v>
+        <v>0.7027916418965524</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6920270727733555</v>
+        <v>0.6919489074975658</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7163322414681179</v>
+        <v>0.7165789697129873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8318298940344357</v>
+        <v>0.8315834038999704</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7120610966495762</v>
+        <v>0.7127651834100999</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7173194543166309</v>
+        <v>0.715082845879593</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7185433838172854</v>
+        <v>0.7231506202448256</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8572713514035055</v>
+        <v>0.8580806090559409</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7701283480034496</v>
+        <v>0.7730399752576252</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7604803623351548</v>
+        <v>0.7581943543567157</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8027117901737369</v>
+        <v>0.8056745826966755</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8843249278470947</v>
+        <v>0.8826004637831565</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7530350021671879</v>
+        <v>0.7511319278970663</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7315275213496845</v>
+        <v>0.7323663213882706</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7563363000658991</v>
+        <v>0.7574540425872651</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8643065436832725</v>
+        <v>0.8637841275989752</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7519186820519795</v>
+        <v>0.7531469492482197</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.8263505907688029</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5970871428459468</v>
+        <v>0.5970871428459467</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6721654915487606</v>
+        <v>0.6723170464357724</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6853930145790342</v>
+        <v>0.6867888227871651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7938460524970554</v>
+        <v>0.7945560318244113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5579774134866704</v>
+        <v>0.5612304321209568</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7238486009711924</v>
+        <v>0.7218353052972146</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7625849063249203</v>
+        <v>0.7619070910104808</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8061960059860541</v>
+        <v>0.8048450479368643</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5714351992270827</v>
+        <v>0.5701750351209814</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7059670643720265</v>
+        <v>0.7073010285820956</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7331477888811251</v>
+        <v>0.7329667007940804</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.809055663723704</v>
+        <v>0.8062315897389436</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5758807382611191</v>
+        <v>0.5728246581843901</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7290378867046904</v>
+        <v>0.7305208018779901</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7476347472802438</v>
+        <v>0.7484472290492761</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.847546247622292</v>
+        <v>0.8459283549719646</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6271536235505607</v>
+        <v>0.6315037901227928</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7774589844176247</v>
+        <v>0.7765311980696107</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8172139407729638</v>
+        <v>0.816096977534263</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8585915401602605</v>
+        <v>0.8591945989901848</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6237825116605527</v>
+        <v>0.6269100672122603</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7445448023590346</v>
+        <v>0.7449261509576941</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.773975129806281</v>
+        <v>0.7758703846271491</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.845663682085831</v>
+        <v>0.8447589714072155</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6188473496543397</v>
+        <v>0.6174321088237549</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6944356769164399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5442743641225345</v>
+        <v>0.5442743641225344</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6917419652068629</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6772849872379679</v>
+        <v>0.671663140909987</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5713222604043705</v>
+        <v>0.5712201457103216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6513371924942846</v>
+        <v>0.6512358701770549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.508769149732948</v>
+        <v>0.5097037549478606</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6427805394433534</v>
+        <v>0.641193880747391</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5869121150352786</v>
+        <v>0.5816641847211008</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7519913703114417</v>
+        <v>0.7518874701584566</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5208742188592839</v>
+        <v>0.5183704376830123</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6730754636809153</v>
+        <v>0.6711385851899486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5889604723540978</v>
+        <v>0.5886791866566937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7134210064151434</v>
+        <v>0.7134116553812764</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5242043152381347</v>
+        <v>0.5236685361260075</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7593845840329392</v>
+        <v>0.7595862506459531</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6648170734599691</v>
+        <v>0.6638389331139528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7331223224355927</v>
+        <v>0.7335712467617254</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5781303777404845</v>
+        <v>0.5797437538182326</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7368936929297975</v>
+        <v>0.7403700570947551</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6804871327540887</v>
+        <v>0.6801774936836549</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8273574481871385</v>
+        <v>0.8239258859879411</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5826205058016406</v>
+        <v>0.5819506988042955</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7380821710459822</v>
+        <v>0.7386233719974967</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6566653747687543</v>
+        <v>0.6549840635009354</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.768233990014508</v>
+        <v>0.7694128101994319</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5730779554724693</v>
+        <v>0.5712397177880056</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8183274963816278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6470023361321274</v>
+        <v>0.6470023361321273</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.721601238437665</v>
@@ -1241,7 +1241,7 @@
         <v>0.8332225297111027</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6508083940256217</v>
+        <v>0.6508083940256219</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6883598881907568</v>
+        <v>0.6883247202595809</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6714348348039398</v>
+        <v>0.6712163799700464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8042002388329643</v>
+        <v>0.8041268368722292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6276056713261593</v>
+        <v>0.6274978288738584</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7061948494204137</v>
+        <v>0.7065809867430933</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7369009613882428</v>
+        <v>0.7368691415109753</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8338306794710209</v>
+        <v>0.8356138204135036</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6396880697292443</v>
+        <v>0.6393747945760139</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7021360091834188</v>
+        <v>0.7006694872255289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7100178256017241</v>
+        <v>0.7110232742051209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8242542507569733</v>
+        <v>0.8245248240283328</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6387796483628206</v>
+        <v>0.6379056373293724</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7211255600061512</v>
+        <v>0.7215593186954471</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7042411057726193</v>
+        <v>0.7046818816699311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8308618364569204</v>
+        <v>0.8306413412927045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6653075042289687</v>
+        <v>0.66493972628494</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7369975103675641</v>
+        <v>0.7368997847865598</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7678575788318696</v>
+        <v>0.7667033788005739</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8591924619771353</v>
+        <v>0.8605262329898016</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6694069163778098</v>
+        <v>0.667774630197601</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7246851646690996</v>
+        <v>0.7245012020099817</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7323528576900324</v>
+        <v>0.73307365280296</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8426214765308778</v>
+        <v>0.8425344238410379</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.661905461477422</v>
+        <v>0.6623547992102253</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>403660</v>
+        <v>404417</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>681667</v>
+        <v>682334</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>938912</v>
+        <v>938832</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>362568</v>
+        <v>359675</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>602894</v>
+        <v>604747</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>795357</v>
+        <v>796051</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1055160</v>
+        <v>1057234</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>445682</v>
+        <v>447380</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1023911</v>
+        <v>1026770</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1498960</v>
+        <v>1491698</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2010263</v>
+        <v>2008652</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>821559</v>
+        <v>822521</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>446711</v>
+        <v>445781</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>747023</v>
+        <v>746379</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>987196</v>
+        <v>985535</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>405511</v>
+        <v>401683</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>659132</v>
+        <v>661573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>854573</v>
+        <v>857714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1103093</v>
+        <v>1103979</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>487487</v>
+        <v>488356</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1094613</v>
+        <v>1093933</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1585449</v>
+        <v>1577706</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>2078044</v>
+        <v>2077330</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>879226</v>
+        <v>877631</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>708399</v>
+        <v>707580</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>635843</v>
+        <v>639609</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>728560</v>
+        <v>727920</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>664917</v>
+        <v>668136</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>748208</v>
+        <v>744057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>816219</v>
+        <v>818158</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>832140</v>
+        <v>833541</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>773084</v>
+        <v>771905</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1476337</v>
+        <v>1476171</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1471109</v>
+        <v>1471615</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1575717</v>
+        <v>1575250</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1455582</v>
+        <v>1457022</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>772416</v>
+        <v>770008</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>696084</v>
+        <v>700547</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>773550</v>
+        <v>774280</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>728419</v>
+        <v>731173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>803480</v>
+        <v>801065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>870882</v>
+        <v>874096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>877196</v>
+        <v>875485</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>827089</v>
+        <v>824999</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1560606</v>
+        <v>1562395</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1553264</v>
+        <v>1555559</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1637237</v>
+        <v>1636247</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1537059</v>
+        <v>1539569</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>752720</v>
+        <v>752890</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>602498</v>
+        <v>603725</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>647289</v>
+        <v>647868</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>577482</v>
+        <v>580848</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>719462</v>
+        <v>717461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>663170</v>
+        <v>662580</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>617455</v>
+        <v>616420</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>589298</v>
+        <v>587998</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1492261</v>
+        <v>1495081</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1282047</v>
+        <v>1281731</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1279336</v>
+        <v>1274871</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1189893</v>
+        <v>1183579</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>816408</v>
+        <v>818069</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>657212</v>
+        <v>657926</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>691076</v>
+        <v>689756</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>649076</v>
+        <v>653578</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>772748</v>
+        <v>771825</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>710677</v>
+        <v>709706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>657584</v>
+        <v>658046</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>643281</v>
+        <v>646507</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1573806</v>
+        <v>1574612</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1353442</v>
+        <v>1356756</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1337223</v>
+        <v>1335793</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1278672</v>
+        <v>1275747</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>300693</v>
+        <v>298197</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>282594</v>
+        <v>282544</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>327478</v>
+        <v>327427</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>487000</v>
+        <v>487895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>219290</v>
+        <v>218748</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>261786</v>
+        <v>259445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>365187</v>
+        <v>365137</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>463594</v>
+        <v>461365</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>528449</v>
+        <v>526928</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>554018</v>
+        <v>553753</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>705150</v>
+        <v>705140</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>968332</v>
+        <v>967343</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>337142</v>
+        <v>337232</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>328840</v>
+        <v>328356</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>368598</v>
+        <v>368823</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>553394</v>
+        <v>554938</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>251397</v>
+        <v>252583</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>303524</v>
+        <v>303386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>401787</v>
+        <v>400121</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>518550</v>
+        <v>517954</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>579488</v>
+        <v>579912</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>617706</v>
+        <v>616125</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>759327</v>
+        <v>760492</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1058614</v>
+        <v>1055218</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2219797</v>
+        <v>2219683</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2261875</v>
+        <v>2261139</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2686772</v>
+        <v>2686527</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2153155</v>
+        <v>2152785</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2338806</v>
+        <v>2340085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2584545</v>
+        <v>2584433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2912460</v>
+        <v>2918688</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2322008</v>
+        <v>2320870</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4589586</v>
+        <v>4580000</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4882107</v>
+        <v>4889020</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5632781</v>
+        <v>5634630</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4510200</v>
+        <v>4504028</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2325458</v>
+        <v>2326857</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2372390</v>
+        <v>2373875</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2775846</v>
+        <v>2775110</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2282500</v>
+        <v>2281239</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2440820</v>
+        <v>2440496</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2693119</v>
+        <v>2689071</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3001045</v>
+        <v>3005704</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2429884</v>
+        <v>2423959</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4736981</v>
+        <v>4735778</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5035683</v>
+        <v>5040639</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5758299</v>
+        <v>5757704</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4673483</v>
+        <v>4676655</v>
       </c>
     </row>
     <row r="24">
